--- a/Indices/Output Files/Pandemic_Prepardness_Correlation_Tables.xlsx
+++ b/Indices/Output Files/Pandemic_Prepardness_Correlation_Tables.xlsx
@@ -2484,10 +2484,10 @@
         <v>62</v>
       </c>
       <c r="G43">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="H43">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="I43" t="s">
         <v>62</v>
@@ -2496,13 +2496,13 @@
         <v>64</v>
       </c>
       <c r="K43">
-        <v>0.0218079644861849</v>
+        <v>0.02042931263741284</v>
       </c>
       <c r="L43" t="s">
         <v>66</v>
       </c>
       <c r="M43">
-        <v>0.6717369400115237</v>
+        <v>0.691002103331088</v>
       </c>
       <c r="N43" t="s">
         <v>71</v>
@@ -4332,10 +4332,10 @@
         <v>62</v>
       </c>
       <c r="G85">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="H85">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="I85" t="s">
         <v>62</v>
@@ -4344,13 +4344,13 @@
         <v>64</v>
       </c>
       <c r="K85">
-        <v>0.02231736286268331</v>
+        <v>0.02017831977137963</v>
       </c>
       <c r="L85" t="s">
         <v>66</v>
       </c>
       <c r="M85">
-        <v>0.6645308048504611</v>
+        <v>0.6946068854322134</v>
       </c>
       <c r="N85" t="s">
         <v>71</v>
@@ -6180,10 +6180,10 @@
         <v>62</v>
       </c>
       <c r="G127">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="H127">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="I127" t="s">
         <v>62</v>
@@ -6192,13 +6192,13 @@
         <v>64</v>
       </c>
       <c r="K127">
-        <v>-0.0095855271472647</v>
+        <v>-0.008858197200483541</v>
       </c>
       <c r="L127" t="s">
         <v>66</v>
       </c>
       <c r="M127">
-        <v>0.8522526275510851</v>
+        <v>0.8631699558365502</v>
       </c>
       <c r="N127" t="s">
         <v>71</v>
@@ -8028,10 +8028,10 @@
         <v>62</v>
       </c>
       <c r="G169">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="H169">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="I169" t="s">
         <v>62</v>
@@ -8040,13 +8040,13 @@
         <v>64</v>
       </c>
       <c r="K169">
-        <v>0.03049077901078751</v>
+        <v>0.02768561464459145</v>
       </c>
       <c r="L169" t="s">
         <v>66</v>
       </c>
       <c r="M169">
-        <v>0.5534794383228635</v>
+        <v>0.590073678511379</v>
       </c>
       <c r="N169" t="s">
         <v>71</v>
@@ -9876,10 +9876,10 @@
         <v>62</v>
       </c>
       <c r="G211">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="H211">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="I211" t="s">
         <v>62</v>
@@ -9888,13 +9888,13 @@
         <v>64</v>
       </c>
       <c r="K211">
-        <v>0.02824093556271731</v>
+        <v>0.02619247928890532</v>
       </c>
       <c r="L211" t="s">
         <v>66</v>
       </c>
       <c r="M211">
-        <v>0.5831337887636243</v>
+        <v>0.6102866261654751</v>
       </c>
       <c r="N211" t="s">
         <v>71</v>
@@ -11724,10 +11724,10 @@
         <v>63</v>
       </c>
       <c r="G253">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="H253">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="I253" t="s">
         <v>62</v>
@@ -11736,13 +11736,13 @@
         <v>64</v>
       </c>
       <c r="K253">
-        <v>-0.05633549781742372</v>
+        <v>-0.05431161584508305</v>
       </c>
       <c r="L253" t="s">
         <v>66</v>
       </c>
       <c r="M253">
-        <v>0.2733268768312644</v>
+        <v>0.2903209862838039</v>
       </c>
       <c r="N253" t="s">
         <v>71</v>
@@ -13572,10 +13572,10 @@
         <v>63</v>
       </c>
       <c r="G295">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="H295">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="I295" t="s">
         <v>62</v>
@@ -13584,13 +13584,13 @@
         <v>64</v>
       </c>
       <c r="K295">
-        <v>0.04747082817952603</v>
+        <v>0.0443411458110251</v>
       </c>
       <c r="L295" t="s">
         <v>66</v>
       </c>
       <c r="M295">
-        <v>0.3560861410448619</v>
+        <v>0.3880905523160499</v>
       </c>
       <c r="N295" t="s">
         <v>71</v>
@@ -15006,10 +15006,10 @@
         <v>61</v>
       </c>
       <c r="D43">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="E43">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="F43" t="s">
         <v>71</v>
@@ -15018,10 +15018,10 @@
         <v>79</v>
       </c>
       <c r="H43">
-        <v>4.373477052434055</v>
+        <v>4.612898282654896</v>
       </c>
       <c r="I43">
-        <v>0.1122823580475169</v>
+        <v>0.09961434074950404</v>
       </c>
       <c r="J43" t="s">
         <v>71</v>
@@ -16350,10 +16350,10 @@
         <v>61</v>
       </c>
       <c r="D85">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="E85">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="F85" t="s">
         <v>71</v>
@@ -16362,10 +16362,10 @@
         <v>79</v>
       </c>
       <c r="H85">
-        <v>0.04219299878400307</v>
+        <v>0.04582294403621745</v>
       </c>
       <c r="I85">
-        <v>0.9791244750939041</v>
+        <v>0.9773490026783591</v>
       </c>
       <c r="J85" t="s">
         <v>71</v>
@@ -17694,10 +17694,10 @@
         <v>61</v>
       </c>
       <c r="D127">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="E127">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="F127" t="s">
         <v>71</v>
@@ -17706,10 +17706,10 @@
         <v>79</v>
       </c>
       <c r="H127">
-        <v>4.045297876219365</v>
+        <v>4.283416839202573</v>
       </c>
       <c r="I127">
-        <v>0.1323045339658178</v>
+        <v>0.1174540107834881</v>
       </c>
       <c r="J127" t="s">
         <v>71</v>
@@ -19038,10 +19038,10 @@
         <v>61</v>
       </c>
       <c r="D169">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="E169">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="F169" t="s">
         <v>71</v>
@@ -19050,10 +19050,10 @@
         <v>79</v>
       </c>
       <c r="H169">
-        <v>0.03447386738525893</v>
+        <v>0.0104102028547004</v>
       </c>
       <c r="I169">
-        <v>0.9829107723647954</v>
+        <v>0.9948084216399317</v>
       </c>
       <c r="J169" t="s">
         <v>71</v>
@@ -20382,10 +20382,10 @@
         <v>61</v>
       </c>
       <c r="D211">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="E211">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="F211" t="s">
         <v>71</v>
@@ -20394,10 +20394,10 @@
         <v>79</v>
       </c>
       <c r="H211">
-        <v>0.2141594797581092</v>
+        <v>0.263640767611605</v>
       </c>
       <c r="I211">
-        <v>0.8984540275183523</v>
+        <v>0.8764984142508216</v>
       </c>
       <c r="J211" t="s">
         <v>71</v>
@@ -21726,10 +21726,10 @@
         <v>61</v>
       </c>
       <c r="D253">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="E253">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="F253" t="s">
         <v>71</v>
@@ -21738,13 +21738,13 @@
         <v>79</v>
       </c>
       <c r="H253">
-        <v>5.947584466186754</v>
+        <v>6.071582995287599</v>
       </c>
       <c r="I253">
-        <v>0.05110912465207512</v>
+        <v>0.04803662694786198</v>
       </c>
       <c r="J253" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -23070,10 +23070,10 @@
         <v>61</v>
       </c>
       <c r="D295">
-        <v>0.322654128074646</v>
+        <v>0.3235854506492615</v>
       </c>
       <c r="E295">
-        <v>1.372753140196279e-36</v>
+        <v>1.318818529971718e-36</v>
       </c>
       <c r="F295" t="s">
         <v>71</v>
@@ -23082,10 +23082,10 @@
         <v>79</v>
       </c>
       <c r="H295">
-        <v>3.767311226481297</v>
+        <v>3.763740293279625</v>
       </c>
       <c r="I295">
-        <v>0.1520333136741997</v>
+        <v>0.1523050065550844</v>
       </c>
       <c r="J295" t="s">
         <v>71</v>
